--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_23_7.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_23_7.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-91989.55041322313</v>
+        <v>-91964.66280656547</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>30521977.82306018</v>
+        <v>30172325.00816061</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-7.95054887445791e-11</v>
+        <v>127206.9465930904</v>
       </c>
     </row>
     <row r="11">
@@ -25877,49 +25879,49 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G44" t="n">
-        <v>414.8547654038309</v>
+        <v>413.934522038312</v>
       </c>
       <c r="H44" t="n">
-        <v>338.1439033881534</v>
+        <v>328.7194610210322</v>
       </c>
       <c r="I44" t="n">
-        <v>205.224307868124</v>
+        <v>169.7466255189538</v>
       </c>
       <c r="J44" t="n">
-        <v>176.5197569135191</v>
+        <v>98.41525156930325</v>
       </c>
       <c r="K44" t="n">
-        <v>214.587604768856</v>
+        <v>97.52919776222207</v>
       </c>
       <c r="L44" t="n">
-        <v>229.8722545957376</v>
+        <v>84.65094969160234</v>
       </c>
       <c r="M44" t="n">
-        <v>224.5875773965909</v>
+        <v>63.00089454090767</v>
       </c>
       <c r="N44" t="n">
-        <v>223.6777370066762</v>
+        <v>59.47641268871214</v>
       </c>
       <c r="O44" t="n">
-        <v>224.3457561361446</v>
+        <v>69.29510178405982</v>
       </c>
       <c r="P44" t="n">
-        <v>225.4521708613878</v>
+        <v>93.12002459555268</v>
       </c>
       <c r="Q44" t="n">
-        <v>216.7480476275882</v>
+        <v>117.3721168894014</v>
       </c>
       <c r="R44" t="n">
-        <v>210.1958993687788</v>
+        <v>152.3896620594977</v>
       </c>
       <c r="S44" t="n">
-        <v>205.8649517235392</v>
+        <v>184.8949060317757</v>
       </c>
       <c r="T44" t="n">
-        <v>222.9651171964204</v>
+        <v>218.936751863861</v>
       </c>
       <c r="U44" t="n">
-        <v>251.4777635765444</v>
+        <v>251.4041441073029</v>
       </c>
       <c r="V44" t="n">
         <v>328.5332215225193</v>
@@ -25956,49 +25958,49 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
-        <v>136.0232102050423</v>
+        <v>135.5308365967838</v>
       </c>
       <c r="H45" t="n">
-        <v>110.4625155221328</v>
+        <v>105.7072230423724</v>
       </c>
       <c r="I45" t="n">
-        <v>97.03432049999999</v>
+        <v>80.08198354899218</v>
       </c>
       <c r="J45" t="n">
-        <v>123.666686</v>
+        <v>77.14817768641285</v>
       </c>
       <c r="K45" t="n">
-        <v>134.395403</v>
+        <v>54.88786293308858</v>
       </c>
       <c r="L45" t="n">
-        <v>135.0905202853774</v>
+        <v>28.18282082555037</v>
       </c>
       <c r="M45" t="n">
-        <v>138.5806830739679</v>
+        <v>13.82444031476771</v>
       </c>
       <c r="N45" t="n">
-        <v>128.05816928125</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>139.0313383333333</v>
+        <v>21.88313163507588</v>
       </c>
       <c r="P45" t="n">
-        <v>130.625047228972</v>
+        <v>36.60328338528051</v>
       </c>
       <c r="Q45" t="n">
-        <v>136.482229733871</v>
+        <v>73.63117054633832</v>
       </c>
       <c r="R45" t="n">
-        <v>142.0375163648649</v>
+        <v>111.4671619854424</v>
       </c>
       <c r="S45" t="n">
-        <v>168.9616139056444</v>
+        <v>159.8159900855784</v>
       </c>
       <c r="T45" t="n">
-        <v>198.3825319082687</v>
+        <v>196.3979207416475</v>
       </c>
       <c r="U45" t="n">
-        <v>224.6571770672012</v>
+        <v>224.6247840666579</v>
       </c>
       <c r="V45" t="n">
         <v>231.9087310396551</v>
@@ -26035,49 +26037,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G46" t="n">
-        <v>167.8895889301081</v>
+        <v>167.4767994368456</v>
       </c>
       <c r="H46" t="n">
-        <v>161.6340720089168</v>
+        <v>157.9639981506375</v>
       </c>
       <c r="I46" t="n">
-        <v>153.7585467974036</v>
+        <v>141.344840945473</v>
       </c>
       <c r="J46" t="n">
-        <v>123.8205359034112</v>
+        <v>94.63631872975202</v>
       </c>
       <c r="K46" t="n">
-        <v>125.787926716272</v>
+        <v>77.82929286268265</v>
       </c>
       <c r="L46" t="n">
-        <v>131.5125593742073</v>
+        <v>70.14201962134344</v>
       </c>
       <c r="M46" t="n">
-        <v>135.4526393489149</v>
+        <v>70.74600996413862</v>
       </c>
       <c r="N46" t="n">
-        <v>124.4934058536024</v>
+        <v>61.32535548916809</v>
       </c>
       <c r="O46" t="n">
-        <v>134.9951249905467</v>
+        <v>76.6492064337699</v>
       </c>
       <c r="P46" t="n">
-        <v>134.2848039479189</v>
+        <v>84.35979105369728</v>
       </c>
       <c r="Q46" t="n">
-        <v>147.7173765887097</v>
+        <v>113.1518854756102</v>
       </c>
       <c r="R46" t="n">
-        <v>173.3911476697823</v>
+        <v>154.8306309999973</v>
       </c>
       <c r="S46" t="n">
-        <v>222.3574069614225</v>
+        <v>215.1636118833841</v>
       </c>
       <c r="T46" t="n">
-        <v>228.3324659915077</v>
+        <v>226.5687290657497</v>
       </c>
       <c r="U46" t="n">
-        <v>286.0522703910642</v>
+        <v>286.0297546005226</v>
       </c>
       <c r="V46" t="n">
         <v>252.9363510669392</v>
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-6.875779945403336e-12</v>
+        <v>220281.2733867225</v>
       </c>
     </row>
   </sheetData>
@@ -26353,7 +26355,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>24475.6970429692</v>
       </c>
     </row>
     <row r="3">
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>152357.359689353</v>
       </c>
     </row>
     <row r="4">
@@ -26509,7 +26511,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>4990.249710368006</v>
       </c>
     </row>
     <row r="6">
@@ -26561,7 +26563,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>-132871.9123567518</v>
       </c>
     </row>
   </sheetData>
@@ -26777,7 +26779,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>228.9105371728443</v>
       </c>
     </row>
     <row r="4">
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>228.9105371728443</v>
       </c>
     </row>
     <row r="4">
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.9202433655189716</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>9.42444236712117</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>35.47768234917019</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>78.10450534421588</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>117.058407006634</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>145.2213049041352</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>161.5866828556833</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>164.201324317964</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>155.0506543520847</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>132.3321462658351</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>99.3759307381869</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>57.80623730928114</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>20.97004569176358</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>4.0283653325593</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>0.0736194692415177</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.4923736082585709</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>4.755292479760408</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>16.95233695100782</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>46.51850831358718</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>79.50754006691143</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>106.907699459827</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>124.7562427592001</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>117.1482066982574</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>94.02176384369149</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>62.85105918753266</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>30.57035437942251</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>9.145623820065993</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>1.984611166621169</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>0.03239300054332704</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.4127894932625061</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>3.670073858279375</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>12.41370585193064</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>29.18421717365919</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>47.95863385358934</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>61.37053975286388</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>64.70662938477629</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>63.16805036443428</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>58.3459185567768</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>49.92501289422163</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>34.5654911130995</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>18.56051666978504</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>7.1937950780384</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1.76373692575798</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>0.02251579054159127</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_23_7.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_23_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-91964.66280656547</v>
+        <v>-251982.7014219143</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>30172325.00816061</v>
+        <v>25879247.04376586</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>127206.9465930904</v>
+        <v>2114968.072970746</v>
       </c>
     </row>
     <row r="11">
@@ -23272,49 +23272,49 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G11" t="n">
-        <v>414.8547654038309</v>
+        <v>413.8325483879333</v>
       </c>
       <c r="H11" t="n">
-        <v>338.1439033881534</v>
+        <v>327.6751233740921</v>
       </c>
       <c r="I11" t="n">
-        <v>205.224307868124</v>
+        <v>165.8152863627317</v>
       </c>
       <c r="J11" t="n">
-        <v>176.5197569135191</v>
+        <v>89.76036546048012</v>
       </c>
       <c r="K11" t="n">
-        <v>214.587604768856</v>
+        <v>84.55776703287157</v>
       </c>
       <c r="L11" t="n">
-        <v>229.8722545957376</v>
+        <v>68.55874285947689</v>
       </c>
       <c r="M11" t="n">
-        <v>224.5875773965909</v>
+        <v>45.0952138038613</v>
       </c>
       <c r="N11" t="n">
-        <v>223.6777370066762</v>
+        <v>41.28099931752746</v>
       </c>
       <c r="O11" t="n">
-        <v>224.3457561361446</v>
+        <v>52.11368889882763</v>
       </c>
       <c r="P11" t="n">
-        <v>225.4521708613878</v>
+        <v>78.45608620404292</v>
       </c>
       <c r="Q11" t="n">
-        <v>216.7480476275882</v>
+        <v>106.3601098520762</v>
       </c>
       <c r="R11" t="n">
-        <v>210.1958993687788</v>
+        <v>145.9840597439011</v>
       </c>
       <c r="S11" t="n">
-        <v>205.8649517235392</v>
+        <v>182.5711814737726</v>
       </c>
       <c r="T11" t="n">
-        <v>222.9651171964204</v>
+        <v>218.4903622093286</v>
       </c>
       <c r="U11" t="n">
-        <v>251.4777635765444</v>
+        <v>251.3959862152726</v>
       </c>
       <c r="V11" t="n">
         <v>328.5332215225193</v>
@@ -23351,49 +23351,49 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G12" t="n">
-        <v>136.0232102050423</v>
+        <v>135.4762758837533</v>
       </c>
       <c r="H12" t="n">
-        <v>110.4625155221328</v>
+        <v>105.1802814191576</v>
       </c>
       <c r="I12" t="n">
-        <v>97.03432049999999</v>
+        <v>78.20346777140992</v>
       </c>
       <c r="J12" t="n">
-        <v>123.666686</v>
+        <v>71.99338681190339</v>
       </c>
       <c r="K12" t="n">
-        <v>134.395403</v>
+        <v>46.07750428554137</v>
       </c>
       <c r="L12" t="n">
-        <v>135.0905202853774</v>
+        <v>16.33620635813517</v>
       </c>
       <c r="M12" t="n">
-        <v>138.5806830739679</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>128.05816928125</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>139.0313383333333</v>
+        <v>8.901750057177253</v>
       </c>
       <c r="P12" t="n">
-        <v>130.625047228972</v>
+        <v>26.18458021020075</v>
       </c>
       <c r="Q12" t="n">
-        <v>136.482229733871</v>
+        <v>66.6665433882805</v>
       </c>
       <c r="R12" t="n">
-        <v>142.0375163648649</v>
+        <v>108.0796117500979</v>
       </c>
       <c r="S12" t="n">
-        <v>168.9616139056444</v>
+        <v>158.8025487711757</v>
       </c>
       <c r="T12" t="n">
-        <v>198.3825319082687</v>
+        <v>196.1780027799153</v>
       </c>
       <c r="U12" t="n">
-        <v>224.6571770672012</v>
+        <v>224.6211945460638</v>
       </c>
       <c r="V12" t="n">
         <v>231.9087310396551</v>
@@ -23430,49 +23430,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G13" t="n">
-        <v>167.8895889301081</v>
+        <v>167.431057567854</v>
       </c>
       <c r="H13" t="n">
-        <v>161.6340720089168</v>
+        <v>157.5573113517852</v>
       </c>
       <c r="I13" t="n">
-        <v>153.7585467974036</v>
+        <v>139.9692581943449</v>
       </c>
       <c r="J13" t="n">
-        <v>123.8205359034112</v>
+        <v>91.40236859204865</v>
       </c>
       <c r="K13" t="n">
-        <v>125.787926716272</v>
+        <v>72.51491935620854</v>
       </c>
       <c r="L13" t="n">
-        <v>131.5125593742073</v>
+        <v>63.34145120781625</v>
       </c>
       <c r="M13" t="n">
-        <v>135.4526393489149</v>
+        <v>63.57576408212509</v>
       </c>
       <c r="N13" t="n">
-        <v>124.4934058536024</v>
+        <v>54.32560202794129</v>
       </c>
       <c r="O13" t="n">
-        <v>134.9951249905467</v>
+        <v>70.18380116939908</v>
       </c>
       <c r="P13" t="n">
-        <v>134.2848039479189</v>
+        <v>78.82751991675428</v>
       </c>
       <c r="Q13" t="n">
-        <v>147.7173765887097</v>
+        <v>109.3216277003259</v>
       </c>
       <c r="R13" t="n">
-        <v>173.3911476697823</v>
+        <v>152.7739102360676</v>
       </c>
       <c r="S13" t="n">
-        <v>222.3574069614225</v>
+        <v>214.366455857413</v>
       </c>
       <c r="T13" t="n">
-        <v>228.3324659915077</v>
+        <v>226.3732865346039</v>
       </c>
       <c r="U13" t="n">
-        <v>286.0522703910642</v>
+        <v>286.0272595894867</v>
       </c>
       <c r="V13" t="n">
         <v>252.9363510669392</v>
@@ -23509,49 +23509,49 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G14" t="n">
-        <v>414.8547654038309</v>
+        <v>413.8325483879333</v>
       </c>
       <c r="H14" t="n">
-        <v>338.1439033881534</v>
+        <v>327.6751233740921</v>
       </c>
       <c r="I14" t="n">
-        <v>205.224307868124</v>
+        <v>165.8152863627317</v>
       </c>
       <c r="J14" t="n">
-        <v>176.5197569135191</v>
+        <v>89.76036546048012</v>
       </c>
       <c r="K14" t="n">
-        <v>214.587604768856</v>
+        <v>84.55776703287157</v>
       </c>
       <c r="L14" t="n">
-        <v>229.8722545957376</v>
+        <v>68.55874285947689</v>
       </c>
       <c r="M14" t="n">
-        <v>224.5875773965909</v>
+        <v>45.0952138038613</v>
       </c>
       <c r="N14" t="n">
-        <v>223.6777370066762</v>
+        <v>41.28099931752746</v>
       </c>
       <c r="O14" t="n">
-        <v>224.3457561361446</v>
+        <v>52.11368889882766</v>
       </c>
       <c r="P14" t="n">
-        <v>225.4521708613878</v>
+        <v>78.45608620404292</v>
       </c>
       <c r="Q14" t="n">
-        <v>216.7480476275882</v>
+        <v>106.3601098520762</v>
       </c>
       <c r="R14" t="n">
-        <v>210.1958993687788</v>
+        <v>145.9840597439011</v>
       </c>
       <c r="S14" t="n">
-        <v>205.8649517235392</v>
+        <v>182.5711814737726</v>
       </c>
       <c r="T14" t="n">
-        <v>222.9651171964204</v>
+        <v>218.4903622093286</v>
       </c>
       <c r="U14" t="n">
-        <v>251.4777635765444</v>
+        <v>251.3959862152726</v>
       </c>
       <c r="V14" t="n">
         <v>328.5332215225193</v>
@@ -23588,49 +23588,49 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G15" t="n">
-        <v>136.0232102050423</v>
+        <v>135.4762758837533</v>
       </c>
       <c r="H15" t="n">
-        <v>110.4625155221328</v>
+        <v>105.1802814191576</v>
       </c>
       <c r="I15" t="n">
-        <v>97.03432049999999</v>
+        <v>78.20346777140993</v>
       </c>
       <c r="J15" t="n">
-        <v>123.666686</v>
+        <v>71.99338681190339</v>
       </c>
       <c r="K15" t="n">
-        <v>134.395403</v>
+        <v>46.07750428554137</v>
       </c>
       <c r="L15" t="n">
-        <v>135.0905202853774</v>
+        <v>16.33620635813519</v>
       </c>
       <c r="M15" t="n">
-        <v>138.5806830739679</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>128.05816928125</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>139.0313383333333</v>
+        <v>8.901750057177253</v>
       </c>
       <c r="P15" t="n">
-        <v>130.625047228972</v>
+        <v>26.18458021020076</v>
       </c>
       <c r="Q15" t="n">
-        <v>136.482229733871</v>
+        <v>66.6665433882805</v>
       </c>
       <c r="R15" t="n">
-        <v>142.0375163648649</v>
+        <v>108.0796117500979</v>
       </c>
       <c r="S15" t="n">
-        <v>168.9616139056444</v>
+        <v>158.8025487711757</v>
       </c>
       <c r="T15" t="n">
-        <v>198.3825319082687</v>
+        <v>196.1780027799153</v>
       </c>
       <c r="U15" t="n">
-        <v>224.6571770672012</v>
+        <v>224.6211945460638</v>
       </c>
       <c r="V15" t="n">
         <v>231.9087310396551</v>
@@ -23667,49 +23667,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G16" t="n">
-        <v>167.8895889301081</v>
+        <v>167.431057567854</v>
       </c>
       <c r="H16" t="n">
-        <v>161.6340720089168</v>
+        <v>157.5573113517852</v>
       </c>
       <c r="I16" t="n">
-        <v>153.7585467974036</v>
+        <v>139.9692581943449</v>
       </c>
       <c r="J16" t="n">
-        <v>123.8205359034112</v>
+        <v>91.40236859204865</v>
       </c>
       <c r="K16" t="n">
-        <v>125.787926716272</v>
+        <v>72.51491935620855</v>
       </c>
       <c r="L16" t="n">
-        <v>131.5125593742073</v>
+        <v>63.34145120781625</v>
       </c>
       <c r="M16" t="n">
-        <v>135.4526393489149</v>
+        <v>63.5757640821251</v>
       </c>
       <c r="N16" t="n">
-        <v>124.4934058536024</v>
+        <v>54.32560202794129</v>
       </c>
       <c r="O16" t="n">
-        <v>134.9951249905467</v>
+        <v>70.18380116939908</v>
       </c>
       <c r="P16" t="n">
-        <v>134.2848039479189</v>
+        <v>78.82751991675428</v>
       </c>
       <c r="Q16" t="n">
-        <v>147.7173765887097</v>
+        <v>109.3216277003259</v>
       </c>
       <c r="R16" t="n">
-        <v>173.3911476697823</v>
+        <v>152.7739102360676</v>
       </c>
       <c r="S16" t="n">
-        <v>222.3574069614225</v>
+        <v>214.366455857413</v>
       </c>
       <c r="T16" t="n">
-        <v>228.3324659915077</v>
+        <v>226.3732865346039</v>
       </c>
       <c r="U16" t="n">
-        <v>286.0522703910642</v>
+        <v>286.0272595894867</v>
       </c>
       <c r="V16" t="n">
         <v>252.9363510669392</v>
@@ -23746,49 +23746,49 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G17" t="n">
-        <v>414.8547654038309</v>
+        <v>413.8325483879333</v>
       </c>
       <c r="H17" t="n">
-        <v>338.1439033881534</v>
+        <v>327.6751233740921</v>
       </c>
       <c r="I17" t="n">
-        <v>205.224307868124</v>
+        <v>165.8152863627317</v>
       </c>
       <c r="J17" t="n">
-        <v>176.5197569135191</v>
+        <v>89.76036546048012</v>
       </c>
       <c r="K17" t="n">
-        <v>214.587604768856</v>
+        <v>84.55776703287157</v>
       </c>
       <c r="L17" t="n">
-        <v>229.8722545957376</v>
+        <v>68.55874285947689</v>
       </c>
       <c r="M17" t="n">
-        <v>224.5875773965909</v>
+        <v>45.0952138038613</v>
       </c>
       <c r="N17" t="n">
-        <v>223.6777370066762</v>
+        <v>41.28099931752746</v>
       </c>
       <c r="O17" t="n">
-        <v>224.3457561361446</v>
+        <v>52.11368889882763</v>
       </c>
       <c r="P17" t="n">
-        <v>225.4521708613878</v>
+        <v>78.45608620404292</v>
       </c>
       <c r="Q17" t="n">
-        <v>216.7480476275882</v>
+        <v>106.3601098520762</v>
       </c>
       <c r="R17" t="n">
-        <v>210.1958993687788</v>
+        <v>145.9840597439011</v>
       </c>
       <c r="S17" t="n">
-        <v>205.8649517235392</v>
+        <v>182.5711814737726</v>
       </c>
       <c r="T17" t="n">
-        <v>222.9651171964204</v>
+        <v>218.4903622093286</v>
       </c>
       <c r="U17" t="n">
-        <v>251.4777635765444</v>
+        <v>251.3959862152726</v>
       </c>
       <c r="V17" t="n">
         <v>328.5332215225193</v>
@@ -23825,49 +23825,49 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G18" t="n">
-        <v>136.0232102050423</v>
+        <v>135.4762758837533</v>
       </c>
       <c r="H18" t="n">
-        <v>110.4625155221328</v>
+        <v>105.1802814191576</v>
       </c>
       <c r="I18" t="n">
-        <v>97.03432049999999</v>
+        <v>78.20346777140992</v>
       </c>
       <c r="J18" t="n">
-        <v>123.666686</v>
+        <v>71.99338681190339</v>
       </c>
       <c r="K18" t="n">
-        <v>134.395403</v>
+        <v>46.07750428554137</v>
       </c>
       <c r="L18" t="n">
-        <v>135.0905202853774</v>
+        <v>16.33620635813517</v>
       </c>
       <c r="M18" t="n">
-        <v>138.5806830739679</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>128.05816928125</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>139.0313383333333</v>
+        <v>8.901750057177253</v>
       </c>
       <c r="P18" t="n">
-        <v>130.625047228972</v>
+        <v>26.18458021020075</v>
       </c>
       <c r="Q18" t="n">
-        <v>136.482229733871</v>
+        <v>66.6665433882805</v>
       </c>
       <c r="R18" t="n">
-        <v>142.0375163648649</v>
+        <v>108.0796117500979</v>
       </c>
       <c r="S18" t="n">
-        <v>168.9616139056444</v>
+        <v>158.8025487711757</v>
       </c>
       <c r="T18" t="n">
-        <v>198.3825319082687</v>
+        <v>196.1780027799153</v>
       </c>
       <c r="U18" t="n">
-        <v>224.6571770672012</v>
+        <v>224.6211945460638</v>
       </c>
       <c r="V18" t="n">
         <v>231.9087310396551</v>
@@ -23904,49 +23904,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G19" t="n">
-        <v>167.8895889301081</v>
+        <v>167.431057567854</v>
       </c>
       <c r="H19" t="n">
-        <v>161.6340720089168</v>
+        <v>157.5573113517852</v>
       </c>
       <c r="I19" t="n">
-        <v>153.7585467974036</v>
+        <v>139.9692581943449</v>
       </c>
       <c r="J19" t="n">
-        <v>123.8205359034112</v>
+        <v>91.40236859204865</v>
       </c>
       <c r="K19" t="n">
-        <v>125.787926716272</v>
+        <v>72.51491935620854</v>
       </c>
       <c r="L19" t="n">
-        <v>131.5125593742073</v>
+        <v>63.34145120781625</v>
       </c>
       <c r="M19" t="n">
-        <v>135.4526393489149</v>
+        <v>63.57576408212509</v>
       </c>
       <c r="N19" t="n">
-        <v>124.4934058536024</v>
+        <v>54.32560202794129</v>
       </c>
       <c r="O19" t="n">
-        <v>134.9951249905467</v>
+        <v>70.18380116939908</v>
       </c>
       <c r="P19" t="n">
-        <v>134.2848039479189</v>
+        <v>78.82751991675428</v>
       </c>
       <c r="Q19" t="n">
-        <v>147.7173765887097</v>
+        <v>109.3216277003259</v>
       </c>
       <c r="R19" t="n">
-        <v>173.3911476697823</v>
+        <v>152.7739102360676</v>
       </c>
       <c r="S19" t="n">
-        <v>222.3574069614225</v>
+        <v>214.366455857413</v>
       </c>
       <c r="T19" t="n">
-        <v>228.3324659915077</v>
+        <v>226.3732865346039</v>
       </c>
       <c r="U19" t="n">
-        <v>286.0522703910642</v>
+        <v>286.0272595894867</v>
       </c>
       <c r="V19" t="n">
         <v>252.9363510669392</v>
@@ -23983,49 +23983,49 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G20" t="n">
-        <v>414.8547654038309</v>
+        <v>413.8325483879333</v>
       </c>
       <c r="H20" t="n">
-        <v>338.1439033881534</v>
+        <v>327.6751233740921</v>
       </c>
       <c r="I20" t="n">
-        <v>205.224307868124</v>
+        <v>165.8152863627317</v>
       </c>
       <c r="J20" t="n">
-        <v>176.5197569135191</v>
+        <v>89.76036546048012</v>
       </c>
       <c r="K20" t="n">
-        <v>214.587604768856</v>
+        <v>84.55776703287157</v>
       </c>
       <c r="L20" t="n">
-        <v>229.8722545957376</v>
+        <v>68.55874285947689</v>
       </c>
       <c r="M20" t="n">
-        <v>224.5875773965909</v>
+        <v>45.0952138038613</v>
       </c>
       <c r="N20" t="n">
-        <v>223.6777370066762</v>
+        <v>41.28099931752746</v>
       </c>
       <c r="O20" t="n">
-        <v>224.3457561361446</v>
+        <v>52.11368889882763</v>
       </c>
       <c r="P20" t="n">
-        <v>225.4521708613878</v>
+        <v>78.45608620404292</v>
       </c>
       <c r="Q20" t="n">
-        <v>216.7480476275882</v>
+        <v>106.3601098520762</v>
       </c>
       <c r="R20" t="n">
-        <v>210.1958993687788</v>
+        <v>145.9840597439011</v>
       </c>
       <c r="S20" t="n">
-        <v>205.8649517235392</v>
+        <v>182.5711814737726</v>
       </c>
       <c r="T20" t="n">
-        <v>222.9651171964204</v>
+        <v>218.4903622093286</v>
       </c>
       <c r="U20" t="n">
-        <v>251.4777635765444</v>
+        <v>251.3959862152726</v>
       </c>
       <c r="V20" t="n">
         <v>328.5332215225193</v>
@@ -24062,49 +24062,49 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
-        <v>136.0232102050423</v>
+        <v>135.4762758837533</v>
       </c>
       <c r="H21" t="n">
-        <v>110.4625155221328</v>
+        <v>105.1802814191576</v>
       </c>
       <c r="I21" t="n">
-        <v>97.03432049999999</v>
+        <v>78.20346777140992</v>
       </c>
       <c r="J21" t="n">
-        <v>123.666686</v>
+        <v>71.99338681190339</v>
       </c>
       <c r="K21" t="n">
-        <v>134.395403</v>
+        <v>46.07750428554137</v>
       </c>
       <c r="L21" t="n">
-        <v>135.0905202853774</v>
+        <v>16.33620635813517</v>
       </c>
       <c r="M21" t="n">
-        <v>138.5806830739679</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>128.05816928125</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>139.0313383333333</v>
+        <v>8.901750057177253</v>
       </c>
       <c r="P21" t="n">
-        <v>130.625047228972</v>
+        <v>26.18458021020075</v>
       </c>
       <c r="Q21" t="n">
-        <v>136.482229733871</v>
+        <v>66.6665433882805</v>
       </c>
       <c r="R21" t="n">
-        <v>142.0375163648649</v>
+        <v>108.0796117500979</v>
       </c>
       <c r="S21" t="n">
-        <v>168.9616139056444</v>
+        <v>158.8025487711757</v>
       </c>
       <c r="T21" t="n">
-        <v>198.3825319082687</v>
+        <v>196.1780027799153</v>
       </c>
       <c r="U21" t="n">
-        <v>224.6571770672012</v>
+        <v>224.6211945460638</v>
       </c>
       <c r="V21" t="n">
         <v>231.9087310396551</v>
@@ -24141,49 +24141,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G22" t="n">
-        <v>167.8895889301081</v>
+        <v>167.431057567854</v>
       </c>
       <c r="H22" t="n">
-        <v>161.6340720089168</v>
+        <v>157.5573113517852</v>
       </c>
       <c r="I22" t="n">
-        <v>153.7585467974036</v>
+        <v>139.9692581943449</v>
       </c>
       <c r="J22" t="n">
-        <v>123.8205359034112</v>
+        <v>91.40236859204865</v>
       </c>
       <c r="K22" t="n">
-        <v>125.787926716272</v>
+        <v>72.51491935620854</v>
       </c>
       <c r="L22" t="n">
-        <v>131.5125593742073</v>
+        <v>63.34145120781625</v>
       </c>
       <c r="M22" t="n">
-        <v>135.4526393489149</v>
+        <v>63.57576408212509</v>
       </c>
       <c r="N22" t="n">
-        <v>124.4934058536024</v>
+        <v>54.32560202794129</v>
       </c>
       <c r="O22" t="n">
-        <v>134.9951249905467</v>
+        <v>70.18380116939908</v>
       </c>
       <c r="P22" t="n">
-        <v>134.2848039479189</v>
+        <v>78.82751991675428</v>
       </c>
       <c r="Q22" t="n">
-        <v>147.7173765887097</v>
+        <v>109.3216277003259</v>
       </c>
       <c r="R22" t="n">
-        <v>173.3911476697823</v>
+        <v>152.7739102360676</v>
       </c>
       <c r="S22" t="n">
-        <v>222.3574069614225</v>
+        <v>214.366455857413</v>
       </c>
       <c r="T22" t="n">
-        <v>228.3324659915077</v>
+        <v>226.3732865346039</v>
       </c>
       <c r="U22" t="n">
-        <v>286.0522703910642</v>
+        <v>286.0272595894867</v>
       </c>
       <c r="V22" t="n">
         <v>252.9363510669392</v>
@@ -24220,49 +24220,49 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G23" t="n">
-        <v>414.8547654038309</v>
+        <v>413.8325483879333</v>
       </c>
       <c r="H23" t="n">
-        <v>338.1439033881534</v>
+        <v>327.6751233740921</v>
       </c>
       <c r="I23" t="n">
-        <v>205.224307868124</v>
+        <v>165.8152863627317</v>
       </c>
       <c r="J23" t="n">
-        <v>176.5197569135191</v>
+        <v>89.76036546048012</v>
       </c>
       <c r="K23" t="n">
-        <v>214.587604768856</v>
+        <v>84.55776703287157</v>
       </c>
       <c r="L23" t="n">
-        <v>229.8722545957376</v>
+        <v>68.55874285947689</v>
       </c>
       <c r="M23" t="n">
-        <v>224.5875773965909</v>
+        <v>45.0952138038613</v>
       </c>
       <c r="N23" t="n">
-        <v>223.6777370066762</v>
+        <v>41.28099931752746</v>
       </c>
       <c r="O23" t="n">
-        <v>224.3457561361446</v>
+        <v>52.11368889882763</v>
       </c>
       <c r="P23" t="n">
-        <v>225.4521708613878</v>
+        <v>78.45608620404292</v>
       </c>
       <c r="Q23" t="n">
-        <v>216.7480476275882</v>
+        <v>106.3601098520762</v>
       </c>
       <c r="R23" t="n">
-        <v>210.1958993687788</v>
+        <v>145.9840597439011</v>
       </c>
       <c r="S23" t="n">
-        <v>205.8649517235392</v>
+        <v>182.5711814737726</v>
       </c>
       <c r="T23" t="n">
-        <v>222.9651171964204</v>
+        <v>218.4903622093286</v>
       </c>
       <c r="U23" t="n">
-        <v>251.4777635765444</v>
+        <v>251.3959862152726</v>
       </c>
       <c r="V23" t="n">
         <v>328.5332215225193</v>
@@ -24299,49 +24299,49 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G24" t="n">
-        <v>136.0232102050423</v>
+        <v>135.4762758837533</v>
       </c>
       <c r="H24" t="n">
-        <v>110.4625155221328</v>
+        <v>105.1802814191576</v>
       </c>
       <c r="I24" t="n">
-        <v>97.03432049999999</v>
+        <v>78.20346777140992</v>
       </c>
       <c r="J24" t="n">
-        <v>123.666686</v>
+        <v>71.99338681190339</v>
       </c>
       <c r="K24" t="n">
-        <v>134.395403</v>
+        <v>46.07750428554137</v>
       </c>
       <c r="L24" t="n">
-        <v>135.0905202853774</v>
+        <v>16.33620635813517</v>
       </c>
       <c r="M24" t="n">
-        <v>138.5806830739679</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>128.05816928125</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>139.0313383333333</v>
+        <v>8.901750057177253</v>
       </c>
       <c r="P24" t="n">
-        <v>130.625047228972</v>
+        <v>26.18458021020075</v>
       </c>
       <c r="Q24" t="n">
-        <v>136.482229733871</v>
+        <v>66.6665433882805</v>
       </c>
       <c r="R24" t="n">
-        <v>142.0375163648649</v>
+        <v>108.0796117500979</v>
       </c>
       <c r="S24" t="n">
-        <v>168.9616139056444</v>
+        <v>158.8025487711757</v>
       </c>
       <c r="T24" t="n">
-        <v>198.3825319082687</v>
+        <v>196.1780027799153</v>
       </c>
       <c r="U24" t="n">
-        <v>224.6571770672012</v>
+        <v>224.6211945460638</v>
       </c>
       <c r="V24" t="n">
         <v>231.9087310396551</v>
@@ -24378,49 +24378,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G25" t="n">
-        <v>167.8895889301081</v>
+        <v>167.431057567854</v>
       </c>
       <c r="H25" t="n">
-        <v>161.6340720089168</v>
+        <v>157.5573113517852</v>
       </c>
       <c r="I25" t="n">
-        <v>153.7585467974036</v>
+        <v>139.9692581943449</v>
       </c>
       <c r="J25" t="n">
-        <v>123.8205359034112</v>
+        <v>91.40236859204865</v>
       </c>
       <c r="K25" t="n">
-        <v>125.787926716272</v>
+        <v>72.51491935620854</v>
       </c>
       <c r="L25" t="n">
-        <v>131.5125593742073</v>
+        <v>63.34145120781625</v>
       </c>
       <c r="M25" t="n">
-        <v>135.4526393489149</v>
+        <v>63.57576408212509</v>
       </c>
       <c r="N25" t="n">
-        <v>124.4934058536024</v>
+        <v>54.32560202794129</v>
       </c>
       <c r="O25" t="n">
-        <v>134.9951249905467</v>
+        <v>70.18380116939908</v>
       </c>
       <c r="P25" t="n">
-        <v>134.2848039479189</v>
+        <v>78.82751991675428</v>
       </c>
       <c r="Q25" t="n">
-        <v>147.7173765887097</v>
+        <v>109.3216277003259</v>
       </c>
       <c r="R25" t="n">
-        <v>173.3911476697823</v>
+        <v>152.7739102360676</v>
       </c>
       <c r="S25" t="n">
-        <v>222.3574069614225</v>
+        <v>214.366455857413</v>
       </c>
       <c r="T25" t="n">
-        <v>228.3324659915077</v>
+        <v>226.3732865346039</v>
       </c>
       <c r="U25" t="n">
-        <v>286.0522703910642</v>
+        <v>286.0272595894867</v>
       </c>
       <c r="V25" t="n">
         <v>252.9363510669392</v>
@@ -24457,49 +24457,49 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G26" t="n">
-        <v>414.8547654038309</v>
+        <v>413.8325483879333</v>
       </c>
       <c r="H26" t="n">
-        <v>338.1439033881534</v>
+        <v>327.6751233740921</v>
       </c>
       <c r="I26" t="n">
-        <v>205.224307868124</v>
+        <v>165.8152863627317</v>
       </c>
       <c r="J26" t="n">
-        <v>176.5197569135191</v>
+        <v>89.76036546048012</v>
       </c>
       <c r="K26" t="n">
-        <v>214.587604768856</v>
+        <v>84.55776703287157</v>
       </c>
       <c r="L26" t="n">
-        <v>229.8722545957376</v>
+        <v>68.55874285947689</v>
       </c>
       <c r="M26" t="n">
-        <v>224.5875773965909</v>
+        <v>45.0952138038613</v>
       </c>
       <c r="N26" t="n">
-        <v>223.6777370066762</v>
+        <v>41.28099931752746</v>
       </c>
       <c r="O26" t="n">
-        <v>224.3457561361446</v>
+        <v>52.11368889882766</v>
       </c>
       <c r="P26" t="n">
-        <v>225.4521708613878</v>
+        <v>78.45608620404292</v>
       </c>
       <c r="Q26" t="n">
-        <v>216.7480476275882</v>
+        <v>106.3601098520762</v>
       </c>
       <c r="R26" t="n">
-        <v>210.1958993687788</v>
+        <v>145.9840597439011</v>
       </c>
       <c r="S26" t="n">
-        <v>205.8649517235392</v>
+        <v>182.5711814737726</v>
       </c>
       <c r="T26" t="n">
-        <v>222.9651171964204</v>
+        <v>218.4903622093286</v>
       </c>
       <c r="U26" t="n">
-        <v>251.4777635765444</v>
+        <v>251.3959862152726</v>
       </c>
       <c r="V26" t="n">
         <v>328.5332215225193</v>
@@ -24536,49 +24536,49 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G27" t="n">
-        <v>136.0232102050423</v>
+        <v>135.4762758837533</v>
       </c>
       <c r="H27" t="n">
-        <v>110.4625155221328</v>
+        <v>105.1802814191576</v>
       </c>
       <c r="I27" t="n">
-        <v>97.03432049999999</v>
+        <v>78.20346777140993</v>
       </c>
       <c r="J27" t="n">
-        <v>123.666686</v>
+        <v>71.99338681190339</v>
       </c>
       <c r="K27" t="n">
-        <v>134.395403</v>
+        <v>46.07750428554137</v>
       </c>
       <c r="L27" t="n">
-        <v>135.0905202853774</v>
+        <v>16.33620635813519</v>
       </c>
       <c r="M27" t="n">
-        <v>138.5806830739679</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>128.05816928125</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>139.0313383333333</v>
+        <v>8.901750057177253</v>
       </c>
       <c r="P27" t="n">
-        <v>130.625047228972</v>
+        <v>26.18458021020076</v>
       </c>
       <c r="Q27" t="n">
-        <v>136.482229733871</v>
+        <v>66.6665433882805</v>
       </c>
       <c r="R27" t="n">
-        <v>142.0375163648649</v>
+        <v>108.0796117500979</v>
       </c>
       <c r="S27" t="n">
-        <v>168.9616139056444</v>
+        <v>158.8025487711757</v>
       </c>
       <c r="T27" t="n">
-        <v>198.3825319082687</v>
+        <v>196.1780027799153</v>
       </c>
       <c r="U27" t="n">
-        <v>224.6571770672012</v>
+        <v>224.6211945460638</v>
       </c>
       <c r="V27" t="n">
         <v>231.9087310396551</v>
@@ -24615,49 +24615,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G28" t="n">
-        <v>167.8895889301081</v>
+        <v>167.431057567854</v>
       </c>
       <c r="H28" t="n">
-        <v>161.6340720089168</v>
+        <v>157.5573113517852</v>
       </c>
       <c r="I28" t="n">
-        <v>153.7585467974036</v>
+        <v>139.9692581943449</v>
       </c>
       <c r="J28" t="n">
-        <v>123.8205359034112</v>
+        <v>91.40236859204865</v>
       </c>
       <c r="K28" t="n">
-        <v>125.787926716272</v>
+        <v>72.51491935620855</v>
       </c>
       <c r="L28" t="n">
-        <v>131.5125593742073</v>
+        <v>63.34145120781625</v>
       </c>
       <c r="M28" t="n">
-        <v>135.4526393489149</v>
+        <v>63.5757640821251</v>
       </c>
       <c r="N28" t="n">
-        <v>124.4934058536024</v>
+        <v>54.32560202794129</v>
       </c>
       <c r="O28" t="n">
-        <v>134.9951249905467</v>
+        <v>70.18380116939908</v>
       </c>
       <c r="P28" t="n">
-        <v>134.2848039479189</v>
+        <v>78.82751991675428</v>
       </c>
       <c r="Q28" t="n">
-        <v>147.7173765887097</v>
+        <v>109.3216277003259</v>
       </c>
       <c r="R28" t="n">
-        <v>173.3911476697823</v>
+        <v>152.7739102360676</v>
       </c>
       <c r="S28" t="n">
-        <v>222.3574069614225</v>
+        <v>214.366455857413</v>
       </c>
       <c r="T28" t="n">
-        <v>228.3324659915077</v>
+        <v>226.3732865346039</v>
       </c>
       <c r="U28" t="n">
-        <v>286.0522703910642</v>
+        <v>286.0272595894867</v>
       </c>
       <c r="V28" t="n">
         <v>252.9363510669392</v>
@@ -24694,49 +24694,49 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G29" t="n">
-        <v>414.8547654038309</v>
+        <v>413.8325483879333</v>
       </c>
       <c r="H29" t="n">
-        <v>338.1439033881534</v>
+        <v>327.6751233740921</v>
       </c>
       <c r="I29" t="n">
-        <v>205.224307868124</v>
+        <v>165.8152863627317</v>
       </c>
       <c r="J29" t="n">
-        <v>176.5197569135191</v>
+        <v>89.76036546048012</v>
       </c>
       <c r="K29" t="n">
-        <v>214.587604768856</v>
+        <v>84.55776703287157</v>
       </c>
       <c r="L29" t="n">
-        <v>229.8722545957376</v>
+        <v>68.55874285947689</v>
       </c>
       <c r="M29" t="n">
-        <v>224.5875773965909</v>
+        <v>45.0952138038613</v>
       </c>
       <c r="N29" t="n">
-        <v>223.6777370066762</v>
+        <v>41.28099931752746</v>
       </c>
       <c r="O29" t="n">
-        <v>224.3457561361446</v>
+        <v>52.11368889882763</v>
       </c>
       <c r="P29" t="n">
-        <v>225.4521708613878</v>
+        <v>78.45608620404292</v>
       </c>
       <c r="Q29" t="n">
-        <v>216.7480476275882</v>
+        <v>106.3601098520762</v>
       </c>
       <c r="R29" t="n">
-        <v>210.1958993687788</v>
+        <v>145.9840597439011</v>
       </c>
       <c r="S29" t="n">
-        <v>205.8649517235392</v>
+        <v>182.5711814737726</v>
       </c>
       <c r="T29" t="n">
-        <v>222.9651171964204</v>
+        <v>218.4903622093286</v>
       </c>
       <c r="U29" t="n">
-        <v>251.4777635765444</v>
+        <v>251.3959862152726</v>
       </c>
       <c r="V29" t="n">
         <v>328.5332215225193</v>
@@ -24773,49 +24773,49 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G30" t="n">
-        <v>136.0232102050423</v>
+        <v>135.4762758837533</v>
       </c>
       <c r="H30" t="n">
-        <v>110.4625155221328</v>
+        <v>105.1802814191576</v>
       </c>
       <c r="I30" t="n">
-        <v>97.03432049999999</v>
+        <v>78.20346777140992</v>
       </c>
       <c r="J30" t="n">
-        <v>123.666686</v>
+        <v>71.99338681190339</v>
       </c>
       <c r="K30" t="n">
-        <v>134.395403</v>
+        <v>46.07750428554137</v>
       </c>
       <c r="L30" t="n">
-        <v>135.0905202853774</v>
+        <v>16.33620635813517</v>
       </c>
       <c r="M30" t="n">
-        <v>138.5806830739679</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>128.05816928125</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>139.0313383333333</v>
+        <v>8.901750057177253</v>
       </c>
       <c r="P30" t="n">
-        <v>130.625047228972</v>
+        <v>26.18458021020075</v>
       </c>
       <c r="Q30" t="n">
-        <v>136.482229733871</v>
+        <v>66.6665433882805</v>
       </c>
       <c r="R30" t="n">
-        <v>142.0375163648649</v>
+        <v>108.0796117500979</v>
       </c>
       <c r="S30" t="n">
-        <v>168.9616139056444</v>
+        <v>158.8025487711757</v>
       </c>
       <c r="T30" t="n">
-        <v>198.3825319082687</v>
+        <v>196.1780027799153</v>
       </c>
       <c r="U30" t="n">
-        <v>224.6571770672012</v>
+        <v>224.6211945460638</v>
       </c>
       <c r="V30" t="n">
         <v>231.9087310396551</v>
@@ -24852,49 +24852,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G31" t="n">
-        <v>167.8895889301081</v>
+        <v>167.431057567854</v>
       </c>
       <c r="H31" t="n">
-        <v>161.6340720089168</v>
+        <v>157.5573113517852</v>
       </c>
       <c r="I31" t="n">
-        <v>153.7585467974036</v>
+        <v>139.9692581943449</v>
       </c>
       <c r="J31" t="n">
-        <v>123.8205359034112</v>
+        <v>91.40236859204865</v>
       </c>
       <c r="K31" t="n">
-        <v>125.787926716272</v>
+        <v>72.51491935620854</v>
       </c>
       <c r="L31" t="n">
-        <v>131.5125593742073</v>
+        <v>63.34145120781625</v>
       </c>
       <c r="M31" t="n">
-        <v>135.4526393489149</v>
+        <v>63.57576408212509</v>
       </c>
       <c r="N31" t="n">
-        <v>124.4934058536024</v>
+        <v>54.32560202794129</v>
       </c>
       <c r="O31" t="n">
-        <v>134.9951249905467</v>
+        <v>70.18380116939908</v>
       </c>
       <c r="P31" t="n">
-        <v>134.2848039479189</v>
+        <v>78.82751991675428</v>
       </c>
       <c r="Q31" t="n">
-        <v>147.7173765887097</v>
+        <v>109.3216277003259</v>
       </c>
       <c r="R31" t="n">
-        <v>173.3911476697823</v>
+        <v>152.7739102360676</v>
       </c>
       <c r="S31" t="n">
-        <v>222.3574069614225</v>
+        <v>214.366455857413</v>
       </c>
       <c r="T31" t="n">
-        <v>228.3324659915077</v>
+        <v>226.3732865346039</v>
       </c>
       <c r="U31" t="n">
-        <v>286.0522703910642</v>
+        <v>286.0272595894867</v>
       </c>
       <c r="V31" t="n">
         <v>252.9363510669392</v>
@@ -24931,49 +24931,49 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G32" t="n">
-        <v>414.8547654038309</v>
+        <v>413.8325483879333</v>
       </c>
       <c r="H32" t="n">
-        <v>338.1439033881534</v>
+        <v>327.6751233740921</v>
       </c>
       <c r="I32" t="n">
-        <v>205.224307868124</v>
+        <v>165.8152863627317</v>
       </c>
       <c r="J32" t="n">
-        <v>176.5197569135191</v>
+        <v>89.76036546048012</v>
       </c>
       <c r="K32" t="n">
-        <v>214.587604768856</v>
+        <v>84.55776703287157</v>
       </c>
       <c r="L32" t="n">
-        <v>229.8722545957376</v>
+        <v>68.55874285947689</v>
       </c>
       <c r="M32" t="n">
-        <v>224.5875773965909</v>
+        <v>45.0952138038613</v>
       </c>
       <c r="N32" t="n">
-        <v>223.6777370066762</v>
+        <v>41.28099931752746</v>
       </c>
       <c r="O32" t="n">
-        <v>224.3457561361446</v>
+        <v>52.11368889882763</v>
       </c>
       <c r="P32" t="n">
-        <v>225.4521708613878</v>
+        <v>78.45608620404292</v>
       </c>
       <c r="Q32" t="n">
-        <v>216.7480476275882</v>
+        <v>106.3601098520762</v>
       </c>
       <c r="R32" t="n">
-        <v>210.1958993687788</v>
+        <v>145.9840597439011</v>
       </c>
       <c r="S32" t="n">
-        <v>205.8649517235392</v>
+        <v>182.5711814737726</v>
       </c>
       <c r="T32" t="n">
-        <v>222.9651171964204</v>
+        <v>218.4903622093286</v>
       </c>
       <c r="U32" t="n">
-        <v>251.4777635765444</v>
+        <v>251.3959862152726</v>
       </c>
       <c r="V32" t="n">
         <v>328.5332215225193</v>
@@ -25010,49 +25010,49 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G33" t="n">
-        <v>136.0232102050423</v>
+        <v>135.4762758837533</v>
       </c>
       <c r="H33" t="n">
-        <v>110.4625155221328</v>
+        <v>105.1802814191576</v>
       </c>
       <c r="I33" t="n">
-        <v>97.03432049999999</v>
+        <v>78.20346777140992</v>
       </c>
       <c r="J33" t="n">
-        <v>123.666686</v>
+        <v>71.99338681190339</v>
       </c>
       <c r="K33" t="n">
-        <v>134.395403</v>
+        <v>46.07750428554137</v>
       </c>
       <c r="L33" t="n">
-        <v>135.0905202853774</v>
+        <v>16.33620635813517</v>
       </c>
       <c r="M33" t="n">
-        <v>138.5806830739679</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>128.05816928125</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>139.0313383333333</v>
+        <v>8.901750057177253</v>
       </c>
       <c r="P33" t="n">
-        <v>130.625047228972</v>
+        <v>26.18458021020075</v>
       </c>
       <c r="Q33" t="n">
-        <v>136.482229733871</v>
+        <v>66.6665433882805</v>
       </c>
       <c r="R33" t="n">
-        <v>142.0375163648649</v>
+        <v>108.0796117500979</v>
       </c>
       <c r="S33" t="n">
-        <v>168.9616139056444</v>
+        <v>158.8025487711757</v>
       </c>
       <c r="T33" t="n">
-        <v>198.3825319082687</v>
+        <v>196.1780027799153</v>
       </c>
       <c r="U33" t="n">
-        <v>224.6571770672012</v>
+        <v>224.6211945460638</v>
       </c>
       <c r="V33" t="n">
         <v>231.9087310396551</v>
@@ -25089,49 +25089,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G34" t="n">
-        <v>167.8895889301081</v>
+        <v>167.431057567854</v>
       </c>
       <c r="H34" t="n">
-        <v>161.6340720089168</v>
+        <v>157.5573113517852</v>
       </c>
       <c r="I34" t="n">
-        <v>153.7585467974036</v>
+        <v>139.9692581943449</v>
       </c>
       <c r="J34" t="n">
-        <v>123.8205359034112</v>
+        <v>91.40236859204865</v>
       </c>
       <c r="K34" t="n">
-        <v>125.787926716272</v>
+        <v>72.51491935620854</v>
       </c>
       <c r="L34" t="n">
-        <v>131.5125593742073</v>
+        <v>63.34145120781625</v>
       </c>
       <c r="M34" t="n">
-        <v>135.4526393489149</v>
+        <v>63.57576408212509</v>
       </c>
       <c r="N34" t="n">
-        <v>124.4934058536024</v>
+        <v>54.32560202794129</v>
       </c>
       <c r="O34" t="n">
-        <v>134.9951249905467</v>
+        <v>70.18380116939908</v>
       </c>
       <c r="P34" t="n">
-        <v>134.2848039479189</v>
+        <v>78.82751991675428</v>
       </c>
       <c r="Q34" t="n">
-        <v>147.7173765887097</v>
+        <v>109.3216277003259</v>
       </c>
       <c r="R34" t="n">
-        <v>173.3911476697823</v>
+        <v>152.7739102360676</v>
       </c>
       <c r="S34" t="n">
-        <v>222.3574069614225</v>
+        <v>214.366455857413</v>
       </c>
       <c r="T34" t="n">
-        <v>228.3324659915077</v>
+        <v>226.3732865346039</v>
       </c>
       <c r="U34" t="n">
-        <v>286.0522703910642</v>
+        <v>286.0272595894867</v>
       </c>
       <c r="V34" t="n">
         <v>252.9363510669392</v>
@@ -25168,49 +25168,49 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G35" t="n">
-        <v>414.8547654038309</v>
+        <v>413.8325483879333</v>
       </c>
       <c r="H35" t="n">
-        <v>338.1439033881534</v>
+        <v>327.6751233740921</v>
       </c>
       <c r="I35" t="n">
-        <v>205.224307868124</v>
+        <v>165.8152863627317</v>
       </c>
       <c r="J35" t="n">
-        <v>176.5197569135191</v>
+        <v>89.76036546048012</v>
       </c>
       <c r="K35" t="n">
-        <v>214.587604768856</v>
+        <v>84.55776703287157</v>
       </c>
       <c r="L35" t="n">
-        <v>229.8722545957376</v>
+        <v>68.55874285947689</v>
       </c>
       <c r="M35" t="n">
-        <v>224.5875773965909</v>
+        <v>45.0952138038613</v>
       </c>
       <c r="N35" t="n">
-        <v>223.6777370066762</v>
+        <v>41.28099931752746</v>
       </c>
       <c r="O35" t="n">
-        <v>224.3457561361446</v>
+        <v>52.11368889882763</v>
       </c>
       <c r="P35" t="n">
-        <v>225.4521708613878</v>
+        <v>78.45608620404292</v>
       </c>
       <c r="Q35" t="n">
-        <v>216.7480476275882</v>
+        <v>106.3601098520762</v>
       </c>
       <c r="R35" t="n">
-        <v>210.1958993687788</v>
+        <v>145.9840597439011</v>
       </c>
       <c r="S35" t="n">
-        <v>205.8649517235392</v>
+        <v>182.5711814737726</v>
       </c>
       <c r="T35" t="n">
-        <v>222.9651171964204</v>
+        <v>218.4903622093286</v>
       </c>
       <c r="U35" t="n">
-        <v>251.4777635765444</v>
+        <v>251.3959862152726</v>
       </c>
       <c r="V35" t="n">
         <v>328.5332215225193</v>
@@ -25247,49 +25247,49 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G36" t="n">
-        <v>136.0232102050423</v>
+        <v>135.4762758837533</v>
       </c>
       <c r="H36" t="n">
-        <v>110.4625155221328</v>
+        <v>105.1802814191576</v>
       </c>
       <c r="I36" t="n">
-        <v>97.03432049999999</v>
+        <v>78.20346777140992</v>
       </c>
       <c r="J36" t="n">
-        <v>123.666686</v>
+        <v>71.99338681190339</v>
       </c>
       <c r="K36" t="n">
-        <v>134.395403</v>
+        <v>46.07750428554137</v>
       </c>
       <c r="L36" t="n">
-        <v>135.0905202853774</v>
+        <v>16.33620635813517</v>
       </c>
       <c r="M36" t="n">
-        <v>138.5806830739679</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>128.05816928125</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>139.0313383333333</v>
+        <v>8.901750057177253</v>
       </c>
       <c r="P36" t="n">
-        <v>130.625047228972</v>
+        <v>26.18458021020075</v>
       </c>
       <c r="Q36" t="n">
-        <v>136.482229733871</v>
+        <v>66.6665433882805</v>
       </c>
       <c r="R36" t="n">
-        <v>142.0375163648649</v>
+        <v>108.0796117500979</v>
       </c>
       <c r="S36" t="n">
-        <v>168.9616139056444</v>
+        <v>158.8025487711757</v>
       </c>
       <c r="T36" t="n">
-        <v>198.3825319082687</v>
+        <v>196.1780027799153</v>
       </c>
       <c r="U36" t="n">
-        <v>224.6571770672012</v>
+        <v>224.6211945460638</v>
       </c>
       <c r="V36" t="n">
         <v>231.9087310396551</v>
@@ -25326,49 +25326,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G37" t="n">
-        <v>167.8895889301081</v>
+        <v>167.431057567854</v>
       </c>
       <c r="H37" t="n">
-        <v>161.6340720089168</v>
+        <v>157.5573113517852</v>
       </c>
       <c r="I37" t="n">
-        <v>153.7585467974036</v>
+        <v>139.9692581943449</v>
       </c>
       <c r="J37" t="n">
-        <v>123.8205359034112</v>
+        <v>91.40236859204865</v>
       </c>
       <c r="K37" t="n">
-        <v>125.787926716272</v>
+        <v>72.51491935620854</v>
       </c>
       <c r="L37" t="n">
-        <v>131.5125593742073</v>
+        <v>63.34145120781625</v>
       </c>
       <c r="M37" t="n">
-        <v>135.4526393489149</v>
+        <v>63.57576408212509</v>
       </c>
       <c r="N37" t="n">
-        <v>124.4934058536024</v>
+        <v>54.32560202794129</v>
       </c>
       <c r="O37" t="n">
-        <v>134.9951249905467</v>
+        <v>70.18380116939908</v>
       </c>
       <c r="P37" t="n">
-        <v>134.2848039479189</v>
+        <v>78.82751991675428</v>
       </c>
       <c r="Q37" t="n">
-        <v>147.7173765887097</v>
+        <v>109.3216277003259</v>
       </c>
       <c r="R37" t="n">
-        <v>173.3911476697823</v>
+        <v>152.7739102360676</v>
       </c>
       <c r="S37" t="n">
-        <v>222.3574069614225</v>
+        <v>214.366455857413</v>
       </c>
       <c r="T37" t="n">
-        <v>228.3324659915077</v>
+        <v>226.3732865346039</v>
       </c>
       <c r="U37" t="n">
-        <v>286.0522703910642</v>
+        <v>286.0272595894867</v>
       </c>
       <c r="V37" t="n">
         <v>252.9363510669392</v>
@@ -25405,49 +25405,49 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G38" t="n">
-        <v>414.8547654038309</v>
+        <v>413.8325483879333</v>
       </c>
       <c r="H38" t="n">
-        <v>338.1439033881534</v>
+        <v>327.6751233740921</v>
       </c>
       <c r="I38" t="n">
-        <v>205.224307868124</v>
+        <v>165.8152863627317</v>
       </c>
       <c r="J38" t="n">
-        <v>176.5197569135191</v>
+        <v>89.76036546048012</v>
       </c>
       <c r="K38" t="n">
-        <v>214.587604768856</v>
+        <v>84.55776703287157</v>
       </c>
       <c r="L38" t="n">
-        <v>229.8722545957376</v>
+        <v>68.55874285947689</v>
       </c>
       <c r="M38" t="n">
-        <v>224.5875773965909</v>
+        <v>45.0952138038613</v>
       </c>
       <c r="N38" t="n">
-        <v>223.6777370066762</v>
+        <v>41.28099931752746</v>
       </c>
       <c r="O38" t="n">
-        <v>224.3457561361446</v>
+        <v>52.11368889882763</v>
       </c>
       <c r="P38" t="n">
-        <v>225.4521708613878</v>
+        <v>78.45608620404292</v>
       </c>
       <c r="Q38" t="n">
-        <v>216.7480476275882</v>
+        <v>106.3601098520762</v>
       </c>
       <c r="R38" t="n">
-        <v>210.1958993687788</v>
+        <v>145.9840597439011</v>
       </c>
       <c r="S38" t="n">
-        <v>205.8649517235392</v>
+        <v>182.5711814737726</v>
       </c>
       <c r="T38" t="n">
-        <v>222.9651171964204</v>
+        <v>218.4903622093286</v>
       </c>
       <c r="U38" t="n">
-        <v>251.4777635765444</v>
+        <v>251.3959862152726</v>
       </c>
       <c r="V38" t="n">
         <v>328.5332215225193</v>
@@ -25484,49 +25484,49 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
-        <v>136.0232102050423</v>
+        <v>135.4762758837533</v>
       </c>
       <c r="H39" t="n">
-        <v>110.4625155221328</v>
+        <v>105.1802814191576</v>
       </c>
       <c r="I39" t="n">
-        <v>97.03432049999999</v>
+        <v>78.20346777140992</v>
       </c>
       <c r="J39" t="n">
-        <v>123.666686</v>
+        <v>71.99338681190339</v>
       </c>
       <c r="K39" t="n">
-        <v>134.395403</v>
+        <v>46.07750428554137</v>
       </c>
       <c r="L39" t="n">
-        <v>135.0905202853774</v>
+        <v>16.33620635813517</v>
       </c>
       <c r="M39" t="n">
-        <v>138.5806830739679</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>128.05816928125</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>139.0313383333333</v>
+        <v>8.901750057177253</v>
       </c>
       <c r="P39" t="n">
-        <v>130.625047228972</v>
+        <v>26.18458021020075</v>
       </c>
       <c r="Q39" t="n">
-        <v>136.482229733871</v>
+        <v>66.6665433882805</v>
       </c>
       <c r="R39" t="n">
-        <v>142.0375163648649</v>
+        <v>108.0796117500979</v>
       </c>
       <c r="S39" t="n">
-        <v>168.9616139056444</v>
+        <v>158.8025487711757</v>
       </c>
       <c r="T39" t="n">
-        <v>198.3825319082687</v>
+        <v>196.1780027799153</v>
       </c>
       <c r="U39" t="n">
-        <v>224.6571770672012</v>
+        <v>224.6211945460638</v>
       </c>
       <c r="V39" t="n">
         <v>231.9087310396551</v>
@@ -25563,49 +25563,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G40" t="n">
-        <v>167.8895889301081</v>
+        <v>167.431057567854</v>
       </c>
       <c r="H40" t="n">
-        <v>161.6340720089168</v>
+        <v>157.5573113517852</v>
       </c>
       <c r="I40" t="n">
-        <v>153.7585467974036</v>
+        <v>139.9692581943449</v>
       </c>
       <c r="J40" t="n">
-        <v>123.8205359034112</v>
+        <v>91.40236859204865</v>
       </c>
       <c r="K40" t="n">
-        <v>125.787926716272</v>
+        <v>72.51491935620854</v>
       </c>
       <c r="L40" t="n">
-        <v>131.5125593742073</v>
+        <v>63.34145120781625</v>
       </c>
       <c r="M40" t="n">
-        <v>135.4526393489149</v>
+        <v>63.57576408212509</v>
       </c>
       <c r="N40" t="n">
-        <v>124.4934058536024</v>
+        <v>54.32560202794129</v>
       </c>
       <c r="O40" t="n">
-        <v>134.9951249905467</v>
+        <v>70.18380116939908</v>
       </c>
       <c r="P40" t="n">
-        <v>134.2848039479189</v>
+        <v>78.82751991675428</v>
       </c>
       <c r="Q40" t="n">
-        <v>147.7173765887097</v>
+        <v>109.3216277003259</v>
       </c>
       <c r="R40" t="n">
-        <v>173.3911476697823</v>
+        <v>152.7739102360676</v>
       </c>
       <c r="S40" t="n">
-        <v>222.3574069614225</v>
+        <v>214.366455857413</v>
       </c>
       <c r="T40" t="n">
-        <v>228.3324659915077</v>
+        <v>226.3732865346039</v>
       </c>
       <c r="U40" t="n">
-        <v>286.0522703910642</v>
+        <v>286.0272595894867</v>
       </c>
       <c r="V40" t="n">
         <v>252.9363510669392</v>
@@ -25642,49 +25642,49 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G41" t="n">
-        <v>414.8547654038309</v>
+        <v>413.8325483879333</v>
       </c>
       <c r="H41" t="n">
-        <v>338.1439033881534</v>
+        <v>327.6751233740921</v>
       </c>
       <c r="I41" t="n">
-        <v>205.224307868124</v>
+        <v>165.8152863627317</v>
       </c>
       <c r="J41" t="n">
-        <v>176.5197569135191</v>
+        <v>89.76036546048012</v>
       </c>
       <c r="K41" t="n">
-        <v>214.587604768856</v>
+        <v>84.55776703287157</v>
       </c>
       <c r="L41" t="n">
-        <v>229.8722545957376</v>
+        <v>68.55874285947689</v>
       </c>
       <c r="M41" t="n">
-        <v>224.5875773965909</v>
+        <v>45.0952138038613</v>
       </c>
       <c r="N41" t="n">
-        <v>223.6777370066762</v>
+        <v>41.28099931752746</v>
       </c>
       <c r="O41" t="n">
-        <v>224.3457561361446</v>
+        <v>52.11368889882763</v>
       </c>
       <c r="P41" t="n">
-        <v>225.4521708613878</v>
+        <v>78.45608620404292</v>
       </c>
       <c r="Q41" t="n">
-        <v>216.7480476275882</v>
+        <v>106.3601098520762</v>
       </c>
       <c r="R41" t="n">
-        <v>210.1958993687788</v>
+        <v>145.9840597439011</v>
       </c>
       <c r="S41" t="n">
-        <v>205.8649517235392</v>
+        <v>182.5711814737726</v>
       </c>
       <c r="T41" t="n">
-        <v>222.9651171964204</v>
+        <v>218.4903622093286</v>
       </c>
       <c r="U41" t="n">
-        <v>251.4777635765444</v>
+        <v>251.3959862152726</v>
       </c>
       <c r="V41" t="n">
         <v>328.5332215225193</v>
@@ -25721,49 +25721,49 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
-        <v>136.0232102050423</v>
+        <v>135.4762758837533</v>
       </c>
       <c r="H42" t="n">
-        <v>110.4625155221328</v>
+        <v>105.1802814191576</v>
       </c>
       <c r="I42" t="n">
-        <v>97.03432049999999</v>
+        <v>78.20346777140992</v>
       </c>
       <c r="J42" t="n">
-        <v>123.666686</v>
+        <v>71.99338681190339</v>
       </c>
       <c r="K42" t="n">
-        <v>134.395403</v>
+        <v>46.07750428554137</v>
       </c>
       <c r="L42" t="n">
-        <v>135.0905202853774</v>
+        <v>16.33620635813517</v>
       </c>
       <c r="M42" t="n">
-        <v>138.5806830739679</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>128.05816928125</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>139.0313383333333</v>
+        <v>8.901750057177253</v>
       </c>
       <c r="P42" t="n">
-        <v>130.625047228972</v>
+        <v>26.18458021020075</v>
       </c>
       <c r="Q42" t="n">
-        <v>136.482229733871</v>
+        <v>66.6665433882805</v>
       </c>
       <c r="R42" t="n">
-        <v>142.0375163648649</v>
+        <v>108.0796117500979</v>
       </c>
       <c r="S42" t="n">
-        <v>168.9616139056444</v>
+        <v>158.8025487711757</v>
       </c>
       <c r="T42" t="n">
-        <v>198.3825319082687</v>
+        <v>196.1780027799153</v>
       </c>
       <c r="U42" t="n">
-        <v>224.6571770672012</v>
+        <v>224.6211945460638</v>
       </c>
       <c r="V42" t="n">
         <v>231.9087310396551</v>
@@ -25800,49 +25800,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G43" t="n">
-        <v>167.8895889301081</v>
+        <v>167.431057567854</v>
       </c>
       <c r="H43" t="n">
-        <v>161.6340720089168</v>
+        <v>157.5573113517852</v>
       </c>
       <c r="I43" t="n">
-        <v>153.7585467974036</v>
+        <v>139.9692581943449</v>
       </c>
       <c r="J43" t="n">
-        <v>123.8205359034112</v>
+        <v>91.40236859204865</v>
       </c>
       <c r="K43" t="n">
-        <v>125.787926716272</v>
+        <v>72.51491935620854</v>
       </c>
       <c r="L43" t="n">
-        <v>131.5125593742073</v>
+        <v>63.34145120781625</v>
       </c>
       <c r="M43" t="n">
-        <v>135.4526393489149</v>
+        <v>63.57576408212509</v>
       </c>
       <c r="N43" t="n">
-        <v>124.4934058536024</v>
+        <v>54.32560202794129</v>
       </c>
       <c r="O43" t="n">
-        <v>134.9951249905467</v>
+        <v>70.18380116939908</v>
       </c>
       <c r="P43" t="n">
-        <v>134.2848039479189</v>
+        <v>78.82751991675428</v>
       </c>
       <c r="Q43" t="n">
-        <v>147.7173765887097</v>
+        <v>109.3216277003259</v>
       </c>
       <c r="R43" t="n">
-        <v>173.3911476697823</v>
+        <v>152.7739102360676</v>
       </c>
       <c r="S43" t="n">
-        <v>222.3574069614225</v>
+        <v>214.366455857413</v>
       </c>
       <c r="T43" t="n">
-        <v>228.3324659915077</v>
+        <v>226.3732865346039</v>
       </c>
       <c r="U43" t="n">
-        <v>286.0522703910642</v>
+        <v>286.0272595894867</v>
       </c>
       <c r="V43" t="n">
         <v>252.9363510669392</v>
@@ -25879,49 +25879,49 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G44" t="n">
-        <v>413.934522038312</v>
+        <v>413.8325483879333</v>
       </c>
       <c r="H44" t="n">
-        <v>328.7194610210322</v>
+        <v>327.6751233740921</v>
       </c>
       <c r="I44" t="n">
-        <v>169.7466255189538</v>
+        <v>165.8152863627317</v>
       </c>
       <c r="J44" t="n">
-        <v>98.41525156930325</v>
+        <v>89.76036546048012</v>
       </c>
       <c r="K44" t="n">
-        <v>97.52919776222207</v>
+        <v>84.55776703287157</v>
       </c>
       <c r="L44" t="n">
-        <v>84.65094969160234</v>
+        <v>68.55874285947689</v>
       </c>
       <c r="M44" t="n">
-        <v>63.00089454090767</v>
+        <v>45.0952138038613</v>
       </c>
       <c r="N44" t="n">
-        <v>59.47641268871214</v>
+        <v>41.28099931752746</v>
       </c>
       <c r="O44" t="n">
-        <v>69.29510178405982</v>
+        <v>52.11368889882766</v>
       </c>
       <c r="P44" t="n">
-        <v>93.12002459555268</v>
+        <v>78.45608620404292</v>
       </c>
       <c r="Q44" t="n">
-        <v>117.3721168894014</v>
+        <v>106.3601098520762</v>
       </c>
       <c r="R44" t="n">
-        <v>152.3896620594977</v>
+        <v>145.9840597439011</v>
       </c>
       <c r="S44" t="n">
-        <v>184.8949060317757</v>
+        <v>182.5711814737726</v>
       </c>
       <c r="T44" t="n">
-        <v>218.936751863861</v>
+        <v>218.4903622093286</v>
       </c>
       <c r="U44" t="n">
-        <v>251.4041441073029</v>
+        <v>251.3959862152726</v>
       </c>
       <c r="V44" t="n">
         <v>328.5332215225193</v>
@@ -25958,49 +25958,49 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
-        <v>135.5308365967838</v>
+        <v>135.4762758837533</v>
       </c>
       <c r="H45" t="n">
-        <v>105.7072230423724</v>
+        <v>105.1802814191576</v>
       </c>
       <c r="I45" t="n">
-        <v>80.08198354899218</v>
+        <v>78.20346777140993</v>
       </c>
       <c r="J45" t="n">
-        <v>77.14817768641285</v>
+        <v>71.99338681190339</v>
       </c>
       <c r="K45" t="n">
-        <v>54.88786293308858</v>
+        <v>46.07750428554137</v>
       </c>
       <c r="L45" t="n">
-        <v>28.18282082555037</v>
+        <v>16.33620635813519</v>
       </c>
       <c r="M45" t="n">
-        <v>13.82444031476771</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>21.88313163507588</v>
+        <v>8.901750057177253</v>
       </c>
       <c r="P45" t="n">
-        <v>36.60328338528051</v>
+        <v>26.18458021020076</v>
       </c>
       <c r="Q45" t="n">
-        <v>73.63117054633832</v>
+        <v>66.6665433882805</v>
       </c>
       <c r="R45" t="n">
-        <v>111.4671619854424</v>
+        <v>108.0796117500979</v>
       </c>
       <c r="S45" t="n">
-        <v>159.8159900855784</v>
+        <v>158.8025487711757</v>
       </c>
       <c r="T45" t="n">
-        <v>196.3979207416475</v>
+        <v>196.1780027799153</v>
       </c>
       <c r="U45" t="n">
-        <v>224.6247840666579</v>
+        <v>224.6211945460638</v>
       </c>
       <c r="V45" t="n">
         <v>231.9087310396551</v>
@@ -26037,49 +26037,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4767994368456</v>
+        <v>167.431057567854</v>
       </c>
       <c r="H46" t="n">
-        <v>157.9639981506375</v>
+        <v>157.5573113517852</v>
       </c>
       <c r="I46" t="n">
-        <v>141.344840945473</v>
+        <v>139.9692581943449</v>
       </c>
       <c r="J46" t="n">
-        <v>94.63631872975202</v>
+        <v>91.40236859204865</v>
       </c>
       <c r="K46" t="n">
-        <v>77.82929286268265</v>
+        <v>72.51491935620855</v>
       </c>
       <c r="L46" t="n">
-        <v>70.14201962134344</v>
+        <v>63.34145120781625</v>
       </c>
       <c r="M46" t="n">
-        <v>70.74600996413862</v>
+        <v>63.5757640821251</v>
       </c>
       <c r="N46" t="n">
-        <v>61.32535548916809</v>
+        <v>54.32560202794129</v>
       </c>
       <c r="O46" t="n">
-        <v>76.6492064337699</v>
+        <v>70.18380116939908</v>
       </c>
       <c r="P46" t="n">
-        <v>84.35979105369728</v>
+        <v>78.82751991675428</v>
       </c>
       <c r="Q46" t="n">
-        <v>113.1518854756102</v>
+        <v>109.3216277003259</v>
       </c>
       <c r="R46" t="n">
-        <v>154.8306309999973</v>
+        <v>152.7739102360676</v>
       </c>
       <c r="S46" t="n">
-        <v>215.1636118833841</v>
+        <v>214.366455857413</v>
       </c>
       <c r="T46" t="n">
-        <v>226.5687290657497</v>
+        <v>226.3732865346039</v>
       </c>
       <c r="U46" t="n">
-        <v>286.0297546005226</v>
+        <v>286.0272595894867</v>
       </c>
       <c r="V46" t="n">
         <v>252.9363510669392</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-6.875779945403336e-12</v>
+        <v>243743.365912948</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-6.875779945403336e-12</v>
+        <v>243743.365912948</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-6.875779945403336e-12</v>
+        <v>243743.365912948</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-6.875779945403336e-12</v>
+        <v>243743.365912948</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-6.875779945403336e-12</v>
+        <v>243743.365912948</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-6.875779945403336e-12</v>
+        <v>243743.365912948</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-6.875779945403336e-12</v>
+        <v>243743.365912948</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-6.875779945403336e-12</v>
+        <v>243743.365912948</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-6.875779945403336e-12</v>
+        <v>243743.365912948</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-6.875779945403336e-12</v>
+        <v>243743.365912948</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-6.875779945403336e-12</v>
+        <v>243743.365912948</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>220281.2733867225</v>
+        <v>243743.365912948</v>
       </c>
     </row>
   </sheetData>
@@ -26322,40 +26322,40 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>27082.5962125498</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>27082.5962125498</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>27082.5962125498</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>27082.5962125498</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>27082.5962125498</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>27082.5962125498</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>27082.5962125498</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>27082.5962125498</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>27082.5962125498</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>27082.59621254979</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>27082.59621254979</v>
       </c>
       <c r="P2" t="n">
-        <v>24475.6970429692</v>
+        <v>27082.59621254979</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>204286.4890342661</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>152357.359689353</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26478,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>5543.227322958715</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>5543.227322958715</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>5543.227322958715</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>5543.227322958715</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>5543.227322958715</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>5543.227322958715</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>5543.227322958715</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>5543.227322958715</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>5543.227322958715</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>5543.227322958715</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>5543.227322958715</v>
       </c>
       <c r="P5" t="n">
-        <v>4990.249710368006</v>
+        <v>5543.227322958715</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-53975.58521537341</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-53975.58521537341</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-53975.58521537341</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-199226.1630439699</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>5060.325990296213</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>5060.32599029622</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>5060.32599029622</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>5060.32599029622</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>5060.325990296213</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>5060.32599029622</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>5060.325990296216</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>5060.325990296213</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>5060.325990296209</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>5060.325990296209</v>
       </c>
       <c r="P6" t="n">
-        <v>-132871.9123567518</v>
+        <v>5060.325990296209</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>254.2764827045282</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>254.2764827045282</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>254.2764827045282</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>254.2764827045282</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>254.2764827045282</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>254.2764827045282</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>254.2764827045282</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>254.2764827045282</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>254.2764827045282</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>254.2764827045282</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>254.2764827045282</v>
       </c>
       <c r="P3" t="n">
-        <v>228.9105371728443</v>
+        <v>254.2764827045282</v>
       </c>
     </row>
     <row r="4">
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>254.2764827045282</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>228.9105371728443</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.0222170158976</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>10.4687800140613</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>39.40902150539227</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>86.75939145303902</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>130.0298377359845</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>161.3135117362607</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>179.4923635927296</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>182.3967376891487</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>172.2320672373169</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>146.9960846573449</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>110.387937775512</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>64.21183962487768</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>23.29377024976659</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>4.474754987091747</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>0.081777361271808</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>0.5469343212889852</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>5.282234102975201</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>18.83085272859007</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>51.67329918809664</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>88.31789871445865</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>118.7543139272422</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>130.1295882761561</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>104.4404670187712</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>69.81568634559048</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>33.95790461476701</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>10.15906513446865</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>2.204529128353409</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>0.03598252113743326</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.4585313622540673</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>4.07676065713162</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>13.78928860305868</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>32.41816731136255</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>53.27300736006344</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>68.17110816639106</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>71.87687526678982</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>70.16780382566108</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>64.81132382114764</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>55.45728403116462</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>38.39574888838376</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>20.61723743371469</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>7.990951104009515</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.959179456903742</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>0.02501080157749461</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.0222170158976</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>10.4687800140613</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>39.40902150539227</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>86.75939145303902</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>130.0298377359845</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>161.3135117362607</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>179.4923635927296</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>182.3967376891487</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>172.2320672373169</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>146.9960846573449</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>110.387937775512</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>64.21183962487768</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>23.29377024976659</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>4.474754987091746</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>0.081777361271808</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.5469343212889852</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>5.282234102975201</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>18.83085272859006</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>51.67329918809664</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>88.31789871445865</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>118.7543139272422</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>130.1295882761561</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>104.4404670187712</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>69.81568634559048</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>33.95790461476701</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>10.15906513446865</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>2.204529128353409</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>0.03598252113743326</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.4585313622540672</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>4.076760657131619</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>13.78928860305868</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>32.41816731136255</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>53.27300736006343</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>68.17110816639106</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>71.87687526678981</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>70.16780382566108</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>64.81132382114764</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>55.45728403116462</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>38.39574888838376</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>20.61723743371469</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>7.990951104009515</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.959179456903741</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>0.0250108015774946</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.0222170158976</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>10.4687800140613</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>39.40902150539227</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>86.75939145303902</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>130.0298377359845</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>161.3135117362607</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>179.4923635927296</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>182.3967376891487</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>172.2320672373169</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>146.9960846573449</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>110.387937775512</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>64.21183962487768</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>23.29377024976659</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>4.474754987091747</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>0.081777361271808</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.5469343212889852</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>5.282234102975201</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>18.83085272859007</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>51.67329918809664</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>88.31789871445865</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>118.7543139272422</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>130.1295882761561</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>104.4404670187712</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>69.81568634559048</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>33.95790461476701</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>10.15906513446865</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>2.204529128353409</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>0.03598252113743326</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.4585313622540673</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>4.07676065713162</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>13.78928860305868</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>32.41816731136255</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>53.27300736006344</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>68.17110816639106</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>71.87687526678982</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>70.16780382566108</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>64.81132382114764</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>55.45728403116462</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>38.39574888838376</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>20.61723743371469</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>7.990951104009515</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1.959179456903742</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>0.02501080157749461</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.0222170158976</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>10.4687800140613</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>39.40902150539227</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>86.75939145303902</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>130.0298377359845</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>161.3135117362607</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>179.4923635927296</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>182.3967376891487</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>172.2320672373169</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>146.9960846573449</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>110.387937775512</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>64.21183962487768</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>23.29377024976659</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>4.474754987091747</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>0.081777361271808</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.5469343212889852</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>5.282234102975201</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>18.83085272859007</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>51.67329918809664</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>88.31789871445865</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>118.7543139272422</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>130.1295882761561</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>104.4404670187712</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>69.81568634559048</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>33.95790461476701</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>10.15906513446865</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>2.204529128353409</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>0.03598252113743326</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.4585313622540673</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>4.07676065713162</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>13.78928860305868</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>32.41816731136255</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>53.27300736006344</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>68.17110816639106</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>71.87687526678982</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>70.16780382566108</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>64.81132382114764</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>55.45728403116462</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>38.39574888838376</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>20.61723743371469</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>7.990951104009515</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1.959179456903742</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>0.02501080157749461</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.0222170158976</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>10.4687800140613</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>39.40902150539227</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>86.75939145303902</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>130.0298377359845</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>161.3135117362607</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>179.4923635927296</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>182.3967376891487</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>172.2320672373169</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>146.9960846573449</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>110.387937775512</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>64.21183962487768</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>23.29377024976659</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>4.474754987091747</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>0.081777361271808</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.5469343212889852</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>5.282234102975201</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>18.83085272859007</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>51.67329918809664</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>88.31789871445865</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>118.7543139272422</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>130.1295882761561</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>104.4404670187712</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>69.81568634559048</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>33.95790461476701</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>10.15906513446865</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>2.204529128353409</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>0.03598252113743326</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.4585313622540673</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>4.07676065713162</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>13.78928860305868</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>32.41816731136255</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>53.27300736006344</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>68.17110816639106</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>71.87687526678982</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>70.16780382566108</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>64.81132382114764</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>55.45728403116462</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>38.39574888838376</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>20.61723743371469</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>7.990951104009515</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1.959179456903742</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>0.02501080157749461</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.0222170158976</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>10.4687800140613</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>39.40902150539227</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>86.75939145303902</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>130.0298377359845</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>161.3135117362607</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>179.4923635927296</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>182.3967376891487</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>172.2320672373169</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>146.9960846573449</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>110.387937775512</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>64.21183962487768</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>23.29377024976659</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>4.474754987091746</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>0.081777361271808</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>0.5469343212889852</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>5.282234102975201</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>18.83085272859006</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>51.67329918809664</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>88.31789871445865</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>118.7543139272422</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>130.1295882761561</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>104.4404670187712</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>69.81568634559048</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>33.95790461476701</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>10.15906513446865</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>2.204529128353409</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>0.03598252113743326</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.4585313622540672</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>4.076760657131619</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>13.78928860305868</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>32.41816731136255</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>53.27300736006343</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>68.17110816639106</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>71.87687526678981</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>70.16780382566108</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>64.81132382114764</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>55.45728403116462</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>38.39574888838376</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>20.61723743371469</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>7.990951104009515</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>1.959179456903741</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>0.0250108015774946</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.0222170158976</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>10.4687800140613</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>39.40902150539227</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>86.75939145303902</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>130.0298377359845</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>161.3135117362607</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>179.4923635927296</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>182.3967376891487</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>172.2320672373169</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>146.9960846573449</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>110.387937775512</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>64.21183962487768</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>23.29377024976659</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>4.474754987091747</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>0.081777361271808</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.5469343212889852</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>5.282234102975201</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>18.83085272859007</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>51.67329918809664</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>88.31789871445865</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>118.7543139272422</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>130.1295882761561</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>104.4404670187712</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>69.81568634559048</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>33.95790461476701</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>10.15906513446865</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>2.204529128353409</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>0.03598252113743326</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.4585313622540673</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>4.07676065713162</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>13.78928860305868</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>32.41816731136255</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>53.27300736006344</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>68.17110816639106</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>71.87687526678982</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>70.16780382566108</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>64.81132382114764</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>55.45728403116462</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>38.39574888838376</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>20.61723743371469</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>7.990951104009515</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>1.959179456903742</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>0.02501080157749461</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.0222170158976</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>10.4687800140613</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>39.40902150539227</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>86.75939145303902</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>130.0298377359845</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>161.3135117362607</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>179.4923635927296</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>182.3967376891487</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>172.2320672373169</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>146.9960846573449</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>110.387937775512</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>64.21183962487768</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>23.29377024976659</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>4.474754987091747</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>0.081777361271808</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.5469343212889852</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>5.282234102975201</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>18.83085272859007</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>51.67329918809664</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>88.31789871445865</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>118.7543139272422</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>130.1295882761561</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>104.4404670187712</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>69.81568634559048</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>33.95790461476701</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>10.15906513446865</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>2.204529128353409</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>0.03598252113743326</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.4585313622540673</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>4.07676065713162</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>13.78928860305868</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>32.41816731136255</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>53.27300736006344</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>68.17110816639106</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>71.87687526678982</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>70.16780382566108</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>64.81132382114764</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>55.45728403116462</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>38.39574888838376</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>20.61723743371469</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>7.990951104009515</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>1.959179456903742</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>0.02501080157749461</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.0222170158976</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>10.4687800140613</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>39.40902150539227</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>86.75939145303902</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>130.0298377359845</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>161.3135117362607</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>179.4923635927296</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>182.3967376891487</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>172.2320672373169</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>146.9960846573449</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>110.387937775512</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>64.21183962487768</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>23.29377024976659</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>4.474754987091747</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>0.081777361271808</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>0.5469343212889852</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>5.282234102975201</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>18.83085272859007</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>51.67329918809664</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>88.31789871445865</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>118.7543139272422</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>130.1295882761561</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>104.4404670187712</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>69.81568634559048</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>33.95790461476701</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>10.15906513446865</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>2.204529128353409</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>0.03598252113743326</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.4585313622540673</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>4.07676065713162</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>13.78928860305868</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>32.41816731136255</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>53.27300736006344</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>68.17110816639106</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>71.87687526678982</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>70.16780382566108</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>64.81132382114764</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>55.45728403116462</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>38.39574888838376</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>20.61723743371469</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>7.990951104009515</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>1.959179456903742</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>0.02501080157749461</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.0222170158976</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>10.4687800140613</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>39.40902150539227</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>86.75939145303902</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>130.0298377359845</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>161.3135117362607</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>179.4923635927296</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>182.3967376891487</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>172.2320672373169</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>146.9960846573449</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>110.387937775512</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>64.21183962487768</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>23.29377024976659</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>4.474754987091747</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>0.081777361271808</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>0.5469343212889852</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>5.282234102975201</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>18.83085272859007</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>51.67329918809664</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>88.31789871445865</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>118.7543139272422</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>130.1295882761561</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>104.4404670187712</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>69.81568634559048</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>33.95790461476701</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>10.15906513446865</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>2.204529128353409</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>0.03598252113743326</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.4585313622540673</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>4.07676065713162</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>13.78928860305868</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>32.41816731136255</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>53.27300736006344</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>68.17110816639106</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>71.87687526678982</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>70.16780382566108</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>64.81132382114764</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>55.45728403116462</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>38.39574888838376</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>20.61723743371469</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>7.990951104009515</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>1.959179456903742</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>0.02501080157749461</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1.0222170158976</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>10.4687800140613</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>39.40902150539227</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>86.75939145303902</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>130.0298377359845</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>161.3135117362607</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>179.4923635927296</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>182.3967376891487</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>172.2320672373169</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>146.9960846573449</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>110.387937775512</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>64.21183962487768</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>23.29377024976659</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>4.474754987091747</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>0.081777361271808</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>0.5469343212889852</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>5.282234102975201</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>18.83085272859007</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>51.67329918809664</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>88.31789871445865</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>118.7543139272422</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>130.1295882761561</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>104.4404670187712</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>69.81568634559048</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>33.95790461476701</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>10.15906513446865</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>2.204529128353409</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>0.03598252113743326</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.4585313622540673</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>4.07676065713162</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>13.78928860305868</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>32.41816731136255</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>53.27300736006344</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>68.17110816639106</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>71.87687526678982</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>70.16780382566108</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>64.81132382114764</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>55.45728403116462</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>38.39574888838376</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>20.61723743371469</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>7.990951104009515</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>1.959179456903742</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>0.02501080157749461</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9202433655189716</v>
+        <v>1.0222170158976</v>
       </c>
       <c r="H44" t="n">
-        <v>9.42444236712117</v>
+        <v>10.4687800140613</v>
       </c>
       <c r="I44" t="n">
-        <v>35.47768234917019</v>
+        <v>39.40902150539227</v>
       </c>
       <c r="J44" t="n">
-        <v>78.10450534421588</v>
+        <v>86.75939145303902</v>
       </c>
       <c r="K44" t="n">
-        <v>117.058407006634</v>
+        <v>130.0298377359845</v>
       </c>
       <c r="L44" t="n">
-        <v>145.2213049041352</v>
+        <v>161.3135117362607</v>
       </c>
       <c r="M44" t="n">
-        <v>161.5866828556833</v>
+        <v>179.4923635927296</v>
       </c>
       <c r="N44" t="n">
-        <v>164.201324317964</v>
+        <v>182.3967376891487</v>
       </c>
       <c r="O44" t="n">
-        <v>155.0506543520847</v>
+        <v>172.2320672373169</v>
       </c>
       <c r="P44" t="n">
-        <v>132.3321462658351</v>
+        <v>146.9960846573449</v>
       </c>
       <c r="Q44" t="n">
-        <v>99.3759307381869</v>
+        <v>110.387937775512</v>
       </c>
       <c r="R44" t="n">
-        <v>57.80623730928114</v>
+        <v>64.21183962487768</v>
       </c>
       <c r="S44" t="n">
-        <v>20.97004569176358</v>
+        <v>23.29377024976659</v>
       </c>
       <c r="T44" t="n">
-        <v>4.0283653325593</v>
+        <v>4.474754987091746</v>
       </c>
       <c r="U44" t="n">
-        <v>0.0736194692415177</v>
+        <v>0.081777361271808</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4923736082585709</v>
+        <v>0.5469343212889852</v>
       </c>
       <c r="H45" t="n">
-        <v>4.755292479760408</v>
+        <v>5.282234102975201</v>
       </c>
       <c r="I45" t="n">
-        <v>16.95233695100782</v>
+        <v>18.83085272859006</v>
       </c>
       <c r="J45" t="n">
-        <v>46.51850831358718</v>
+        <v>51.67329918809664</v>
       </c>
       <c r="K45" t="n">
-        <v>79.50754006691143</v>
+        <v>88.31789871445865</v>
       </c>
       <c r="L45" t="n">
-        <v>106.907699459827</v>
+        <v>118.7543139272422</v>
       </c>
       <c r="M45" t="n">
-        <v>124.7562427592001</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N45" t="n">
         <v>128.05816928125</v>
       </c>
       <c r="O45" t="n">
-        <v>117.1482066982574</v>
+        <v>130.1295882761561</v>
       </c>
       <c r="P45" t="n">
-        <v>94.02176384369149</v>
+        <v>104.4404670187712</v>
       </c>
       <c r="Q45" t="n">
-        <v>62.85105918753266</v>
+        <v>69.81568634559048</v>
       </c>
       <c r="R45" t="n">
-        <v>30.57035437942251</v>
+        <v>33.95790461476701</v>
       </c>
       <c r="S45" t="n">
-        <v>9.145623820065993</v>
+        <v>10.15906513446865</v>
       </c>
       <c r="T45" t="n">
-        <v>1.984611166621169</v>
+        <v>2.204529128353409</v>
       </c>
       <c r="U45" t="n">
-        <v>0.03239300054332704</v>
+        <v>0.03598252113743326</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4127894932625061</v>
+        <v>0.4585313622540672</v>
       </c>
       <c r="H46" t="n">
-        <v>3.670073858279375</v>
+        <v>4.076760657131619</v>
       </c>
       <c r="I46" t="n">
-        <v>12.41370585193064</v>
+        <v>13.78928860305868</v>
       </c>
       <c r="J46" t="n">
-        <v>29.18421717365919</v>
+        <v>32.41816731136255</v>
       </c>
       <c r="K46" t="n">
-        <v>47.95863385358934</v>
+        <v>53.27300736006343</v>
       </c>
       <c r="L46" t="n">
-        <v>61.37053975286388</v>
+        <v>68.17110816639106</v>
       </c>
       <c r="M46" t="n">
-        <v>64.70662938477629</v>
+        <v>71.87687526678981</v>
       </c>
       <c r="N46" t="n">
-        <v>63.16805036443428</v>
+        <v>70.16780382566108</v>
       </c>
       <c r="O46" t="n">
-        <v>58.3459185567768</v>
+        <v>64.81132382114764</v>
       </c>
       <c r="P46" t="n">
-        <v>49.92501289422163</v>
+        <v>55.45728403116462</v>
       </c>
       <c r="Q46" t="n">
-        <v>34.5654911130995</v>
+        <v>38.39574888838376</v>
       </c>
       <c r="R46" t="n">
-        <v>18.56051666978504</v>
+        <v>20.61723743371469</v>
       </c>
       <c r="S46" t="n">
-        <v>7.1937950780384</v>
+        <v>7.990951104009515</v>
       </c>
       <c r="T46" t="n">
-        <v>1.76373692575798</v>
+        <v>1.959179456903741</v>
       </c>
       <c r="U46" t="n">
-        <v>0.02251579054159127</v>
+        <v>0.0250108015774946</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
